--- a/docs/Datamining/dataset/classified_data/Confusion_matrices.xlsx
+++ b/docs/Datamining/dataset/classified_data/Confusion_matrices.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianluca/GitHub/GIAR_datamining/docs/Datamining/dataset/classified_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4CE6DAF-F5AD-BE4B-B2BA-F6224EFCEC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668953CC-E6B0-2242-8D14-0827FC9E82AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{557F2496-55AE-8041-A47E-F2FA27466CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
   <si>
     <t>negative</t>
   </si>
@@ -89,15 +89,19 @@
   <si>
     <t>Note:</t>
   </si>
+  <si>
+    <t>Accurancy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +128,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,13 +169,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,9 +212,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86FF989-F023-DE47-9F11-974D3EDF4677}">
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +542,7 @@
     <col min="7" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -553,8 +569,11 @@
       <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -584,7 +603,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -614,7 +633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -644,7 +663,7 @@
         <v>0.94214876033057848</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -667,23 +686,27 @@
       <c r="G6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f xml:space="preserve"> AVERAGE(H3:H5)</f>
         <v>0.70853858784893264</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f xml:space="preserve"> AVERAGE(I3:I5)</f>
         <v>0.80158730158730152</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>AVERAGE(J3:J5)</f>
         <v>0.74158581866091744</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="16">
+        <f xml:space="preserve"> SUM(B3,C4,D5) / E6</f>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -709,8 +732,11 @@
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
@@ -740,8 +766,12 @@
         <f xml:space="preserve"> (2*H9*I9) / (H9+I9)</f>
         <v>0.59259259259259267</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="16">
+        <f xml:space="preserve"> SUM(B9,C10,D11) / E12</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
@@ -769,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -800,7 +830,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
@@ -823,23 +853,23 @@
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f xml:space="preserve"> AVERAGE(H9:H11)</f>
         <v>0.46914414414414418</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f xml:space="preserve"> AVERAGE(I9:I11)</f>
         <v>0.5303921568627451</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f>AVERAGE(J9:J11)</f>
         <v>0.45753086419753092</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -865,8 +895,11 @@
       <c r="J14" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
@@ -897,7 +930,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -928,7 +961,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
@@ -959,7 +992,7 @@
         <v>0.70229007633587781</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
@@ -982,23 +1015,27 @@
       <c r="G18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <f xml:space="preserve"> AVERAGE(H15:H17)</f>
         <v>0.53607466165847073</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f xml:space="preserve"> AVERAGE(I15:I17)</f>
         <v>0.74920634920634921</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <f>AVERAGE(J15:J17)</f>
         <v>0.53338210615147164</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="16">
+        <f xml:space="preserve"> SUM(B15,C16,D17) / E18</f>
+        <v>0.62385321100917435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1024,8 +1061,11 @@
       <c r="J20" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1096,7 @@
         <v>0.77966101694915257</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1127,7 @@
         <v>0.53061224489795922</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1158,7 @@
         <v>0.7435897435897435</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
@@ -1141,23 +1181,27 @@
       <c r="G24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <f xml:space="preserve"> AVERAGE(H21:H23)</f>
         <v>0.69713770565697553</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f xml:space="preserve"> AVERAGE(I21:I23)</f>
         <v>0.72472222222222227</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <f>AVERAGE(J21:J23)</f>
         <v>0.68462100181228502</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="16">
+        <f xml:space="preserve"> SUM(B21,C22,D23) / E24</f>
+        <v>0.69892473118279574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
@@ -1183,8 +1227,11 @@
       <c r="J26" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1262,7 @@
         <v>0.73972602739726012</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1323,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>14</v>
       </c>
@@ -1299,24 +1346,28 @@
       <c r="G30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <f xml:space="preserve"> AVERAGE(H27:H29)</f>
         <v>0.51206044754431845</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f xml:space="preserve"> AVERAGE(I27:I29)</f>
         <v>0.46367521367521364</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <f>AVERAGE(J27:J29)</f>
         <v>0.48467058056099144</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="16">
+        <f xml:space="preserve"> SUM(B27,C28,D29) / E30</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
@@ -1343,6 +1394,9 @@
       <c r="J32" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="K32" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -1457,16 +1511,20 @@
       <c r="G36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <f xml:space="preserve"> AVERAGE(H33:H35)</f>
         <v>0.47290640394088673</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f xml:space="preserve"> AVERAGE(I33:I35)</f>
         <v>0.82352941176470595</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="18">
         <v>0.74158581999999995</v>
+      </c>
+      <c r="K36" s="16">
+        <f xml:space="preserve"> SUM(B33,C34,D35) / E36</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1500,6 +1558,9 @@
       <c r="J38" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="K38" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
@@ -1614,16 +1675,20 @@
       <c r="G42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <f xml:space="preserve"> AVERAGE(H39:H41)</f>
         <v>0.54705882352941171</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f xml:space="preserve"> AVERAGE(I39:I41)</f>
         <v>0.6839080459770116</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="18">
         <v>0.74158581999999995</v>
+      </c>
+      <c r="K42" s="16">
+        <f xml:space="preserve"> SUM(B39,C40,D41) / E42</f>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,6 +1725,9 @@
       <c r="J44" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="K44" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
@@ -1777,16 +1845,20 @@
       <c r="G48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <f xml:space="preserve"> AVERAGE(H45:H47)</f>
         <v>0.46275946275946273</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f xml:space="preserve"> AVERAGE(I45:I47)</f>
         <v>0.550682261208577</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="18">
         <v>0.74158581999999995</v>
+      </c>
+      <c r="K48" s="16">
+        <f xml:space="preserve"> SUM(B45,C46,D47) / E48</f>
+        <v>0.40677966101694918</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1823,6 +1895,9 @@
       <c r="J50" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="K50" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
@@ -1940,16 +2015,20 @@
       <c r="G54" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <f xml:space="preserve"> AVERAGE(H51:H53)</f>
         <v>0.48205585264408796</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f xml:space="preserve"> AVERAGE(I51:I53)</f>
         <v>0.78282828282828287</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="18">
         <v>0.74158581999999995</v>
+      </c>
+      <c r="K54" s="16">
+        <f xml:space="preserve"> SUM(B51,C52,D53) / E54</f>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -1966,6 +2045,9 @@
       <c r="J56" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="K56" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G57" s="14" t="s">
@@ -1982,6 +2064,10 @@
       <c r="J57" s="2">
         <f xml:space="preserve"> AVERAGE(J6,J12,J18,J24,J30,J36,J42,J48,J54)</f>
         <v>0.65201485015368854</v>
+      </c>
+      <c r="K57" s="17">
+        <f xml:space="preserve"> AVERAGE(K6,K9,K18,K24,K30,K36,K42,K48,K54)</f>
+        <v>0.63031007621285395</v>
       </c>
     </row>
   </sheetData>
